--- a/画面設計総編集/顧客管理.xlsx
+++ b/画面設計総編集/顧客管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\system-devel\画面設計総編集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1310,12 +1310,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,18 +1430,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
@@ -1358,15 +1448,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,87 +1455,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1480,19 +1480,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18672</xdr:rowOff>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1511,8 +1511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341120" y="1630680"/>
-          <a:ext cx="6560820" cy="4613532"/>
+          <a:off x="1356360" y="1409700"/>
+          <a:ext cx="6568440" cy="4594485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1821,96 +1821,96 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="57" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="85" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="73" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="93"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="92"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="57" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="73" t="s">
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="76" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="105"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
@@ -1922,15 +1922,15 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="96"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.2">
@@ -1960,17 +1960,17 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
@@ -2000,17 +2000,17 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99" t="s">
+      <c r="K11" s="65"/>
+      <c r="L11" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="100"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
@@ -2024,11 +2024,11 @@
       <c r="I12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="100"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
@@ -2040,17 +2040,17 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99" t="s">
+      <c r="K13" s="65"/>
+      <c r="L13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="100"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
@@ -2064,11 +2064,11 @@
       <c r="I14" s="7"/>
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="100"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
@@ -2080,17 +2080,17 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="97" t="s">
+      <c r="J15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99" t="s">
+      <c r="K15" s="65"/>
+      <c r="L15" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -2104,11 +2104,11 @@
       <c r="I16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -2120,17 +2120,17 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99">
+      <c r="K17" s="65"/>
+      <c r="L17" s="62">
         <v>9</v>
       </c>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
@@ -2144,11 +2144,11 @@
       <c r="I18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -2160,17 +2160,17 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99" t="s">
+      <c r="K19" s="65"/>
+      <c r="L19" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="100"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
@@ -2200,15 +2200,15 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="103"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="59"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.2">
@@ -3241,10 +3241,10 @@
     </row>
     <row r="64" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="105"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -3533,6 +3533,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:P15"/>
     <mergeCell ref="J21:P21"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="L16:P16"/>
@@ -3541,28 +3563,6 @@
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
